--- a/Webpage and Database Design/Database Design/Relationenmodell.xlsx
+++ b/Webpage and Database Design/Database Design/Relationenmodell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelstipsits/Documents/FH_Campus/5. Semester/Datenbanken VO_UE/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetBeansDBProject\bestes-db-projekt\Webpage and Database Design\Database Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32B6C9F5-C957-9D47-90E4-C05A9390DBC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E4921-C12F-43D4-9C7C-8EB630F0D55B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" xr2:uid="{04E73013-EF3E-3741-9B34-881D3B321623}"/>
+    <workbookView xWindow="2085" yWindow="1305" windowWidth="23235" windowHeight="13890" xr2:uid="{04E73013-EF3E-3741-9B34-881D3B321623}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t xml:space="preserve">Vorname </t>
   </si>
@@ -670,12 +670,6 @@
   </si>
   <si>
     <t>GEHALTSKONTO</t>
-  </si>
-  <si>
-    <t>SVNr -&gt; Kaptaen</t>
-  </si>
-  <si>
-    <t>FK: SVNr -&gt; Kapitaen(SVNr)</t>
   </si>
   <si>
     <r>
@@ -881,7 +875,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,7 +891,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1195,17 +1189,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92384DDA-005B-6347-B5B0-433374DB300F}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="179" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1386,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>18</v>
@@ -1404,7 +1398,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1419,12 +1413,12 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1"/>
     </row>
@@ -1442,13 +1436,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1720,7 +1714,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1811,7 +1805,7 @@
         <v>88</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1824,12 +1818,12 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -1839,7 +1833,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:6">
